--- a/sample/サンプル定義書.xlsx
+++ b/sample/サンプル定義書.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130">
   <si>
     <t>サンプルメール</t>
   </si>
@@ -35,148 +35,292 @@
     <t>変動項目</t>
   </si>
   <si>
+    <t>ラベル</t>
+  </si>
+  <si>
     <t>置換変数</t>
   </si>
   <si>
+    <t>型</t>
+  </si>
+  <si>
     <t>表示条件</t>
   </si>
   <si>
-    <t>佐々木 正太郎様</t>
-  </si>
-  <si>
-    <t>佐々木 正太郎</t>
+    <t>システム表現</t>
+  </si>
+  <si>
+    <t>○× △□様</t>
+  </si>
+  <si>
+    <t>○× △□</t>
+  </si>
+  <si>
+    <t>ユーザ名</t>
   </si>
   <si>
     <t>userName</t>
   </si>
   <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>「-」はチケット購入枚数が1枚の時は表示しない。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#if </t>
+  </si>
+  <si>
+    <t>399 424 126</t>
+  </si>
+  <si>
+    <t>チケット番号</t>
+  </si>
+  <si>
+    <t>ticketNumber</t>
+  </si>
+  <si>
     <t>お客様のチケットの購入内容は以下の通りです。</t>
   </si>
   <si>
+    <t xml:space="preserve">ベネッセ　English　Concert　for　Kids　HELLO,FRIENDS! </t>
+  </si>
+  <si>
+    <t>公演名</t>
+  </si>
+  <si>
+    <t>eventName</t>
+  </si>
+  <si>
     <t>必ず購入内容をマイページの「購入履歴」にてご確認ください。</t>
   </si>
   <si>
+    <t>2016/6/26(日)</t>
+  </si>
+  <si>
+    <t>公演日</t>
+  </si>
+  <si>
+    <t>eventDate</t>
+  </si>
+  <si>
     <t>【ご購入内容】</t>
   </si>
   <si>
-    <t>■チケット引換番号:342 121 226</t>
-  </si>
-  <si>
-    <t>342 121 226</t>
-  </si>
-  <si>
-    <t>ticketNumber</t>
+    <t>13:30</t>
+  </si>
+  <si>
+    <t>開演時刻</t>
+  </si>
+  <si>
+    <t>eventTime</t>
+  </si>
+  <si>
+    <t>■チケット引換番号:399 424 126</t>
+  </si>
+  <si>
+    <t>川口総合文化センター　リリア　メインホール (埼玉県)</t>
+  </si>
+  <si>
+    <t>公演会場名</t>
+  </si>
+  <si>
+    <t>eventPlace</t>
   </si>
   <si>
     <t>■公演情報</t>
   </si>
   <si>
+    <t>13,16,17</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>チケット購入枚数</t>
+  </si>
+  <si>
+    <t>ticketCount</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
     <t xml:space="preserve">公演名:ベネッセ　English　Concert　for　Kids　HELLO,FRIENDS! </t>
   </si>
   <si>
-    <t xml:space="preserve">ベネッセ　English　Concert　for　Kids　HELLO,FRIENDS! </t>
-  </si>
-  <si>
-    <t>eventName</t>
+    <t>1</t>
+  </si>
+  <si>
+    <t>公演会場階数</t>
+  </si>
+  <si>
+    <t>floorNo</t>
   </si>
   <si>
     <t>公演日:2016/6/26(日)</t>
   </si>
   <si>
-    <t>2016/6/26(日)</t>
-  </si>
-  <si>
-    <t>eventDate</t>
+    <t>13</t>
+  </si>
+  <si>
+    <t>公演会場席列番号</t>
+  </si>
+  <si>
+    <t>columnsNo</t>
   </si>
   <si>
     <t>開演時刻:13:30</t>
   </si>
   <si>
-    <t>13:30</t>
-  </si>
-  <si>
-    <t>eventTime</t>
+    <t>26</t>
+  </si>
+  <si>
+    <t>公演会場席番号FROM</t>
+  </si>
+  <si>
+    <t>seatNoFrom</t>
   </si>
   <si>
     <t>会場名:川口総合文化センター　リリア　メインホール (埼玉県)</t>
   </si>
   <si>
-    <t>川口総合文化センター　リリア　メインホール (埼玉県)</t>
-  </si>
-  <si>
-    <t>eventPlace</t>
+    <t>-</t>
+  </si>
+  <si>
+    <t>FROM TO 間のハイフン</t>
+  </si>
+  <si>
+    <t>fromToConnectStr</t>
   </si>
   <si>
     <t>■購入チケット情報</t>
   </si>
   <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>公演会場席番号TO</t>
+  </si>
+  <si>
+    <t>seatNoTo</t>
+  </si>
+  <si>
     <t xml:space="preserve">全席指定  3枚  </t>
   </si>
   <si>
-    <t>13,16,17</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>ticketCount</t>
-  </si>
-  <si>
-    <t>1階 25列 26番-28番</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>floorNo</t>
+    <t>9,360</t>
+  </si>
+  <si>
+    <t>チケット料金合計金額</t>
+  </si>
+  <si>
+    <t>ticketTotalAmount</t>
+  </si>
+  <si>
+    <t>1階 13列 26番-28番</t>
+  </si>
+  <si>
+    <t>216</t>
+  </si>
+  <si>
+    <t>システム利用料</t>
+  </si>
+  <si>
+    <t>systemUseAmount</t>
   </si>
   <si>
     <t>■料金明細</t>
   </si>
   <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>columnsNo</t>
+    <t>648</t>
+  </si>
+  <si>
+    <t>システム利用料合計金額</t>
+  </si>
+  <si>
+    <t>systemUseTotalAmount</t>
   </si>
   <si>
     <t>チケット料金:全席指定 3枚 計9,360円</t>
   </si>
   <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>seatNoFrom</t>
+    <t>617</t>
+  </si>
+  <si>
+    <t>配送手数料</t>
+  </si>
+  <si>
+    <t>shippingCharges</t>
   </si>
   <si>
     <t>システム利用料:216円 × 3枚 計 648円</t>
   </si>
   <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>seatNoTo</t>
+    <t>10,625</t>
+  </si>
+  <si>
+    <t>合計金額</t>
+  </si>
+  <si>
+    <t>totalAmount</t>
   </si>
   <si>
     <t>配送手数料:617円</t>
   </si>
   <si>
-    <t>9,360</t>
-  </si>
-  <si>
-    <t>ticketTotalAmount</t>
+    <t>クレジットカード</t>
+  </si>
+  <si>
+    <t>決済方法</t>
+  </si>
+  <si>
+    <t>paymentMethod</t>
   </si>
   <si>
     <t>合計金額:計 10,625円</t>
   </si>
   <si>
-    <t>216</t>
+    <t>VISA</t>
+  </si>
+  <si>
+    <t>決済種別</t>
+  </si>
+  <si>
+    <t>paymentType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">配送でお届け </t>
+  </si>
+  <si>
+    <t>引取方法</t>
+  </si>
+  <si>
+    <t>takeOffMethod</t>
   </si>
   <si>
     <t>■決済方法</t>
   </si>
   <si>
-    <t>クレジットカード</t>
+    <t>53-56</t>
+  </si>
+  <si>
+    <t>$PLUGTEXT$</t>
+  </si>
+  <si>
+    <t>差し込み「注意文言」</t>
+  </si>
+  <si>
+    <t>plugTextNotice</t>
+  </si>
+  <si>
+    <t>$INCLUDE$</t>
+  </si>
+  <si>
+    <t>共通フッター</t>
+  </si>
+  <si>
+    <t>footer</t>
   </si>
   <si>
     <t>登録名:VISA</t>
@@ -185,9 +329,6 @@
     <t>■引取方法</t>
   </si>
   <si>
-    <t xml:space="preserve">配送でお届け </t>
-  </si>
-  <si>
     <t>お届け先:基本情報</t>
   </si>
   <si>
@@ -258,9 +399,6 @@
   </si>
   <si>
     <t>万が一、病気などで行けなくなった時に備えて購入後すぐチケットにかける保険。チケットガードに入っていれば、もう安心!</t>
-  </si>
-  <si>
-    <t>53-54</t>
   </si>
   <si>
     <t>お申し込みはカンタン。マイページの購入履歴画面よりどうぞ</t>
@@ -274,9 +412,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="1">
@@ -286,15 +424,27 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="51"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -317,48 +467,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="5" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="5" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="5" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="5" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="5" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="12">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="桁区切り" xfId="1" builtinId="3"/>
     <cellStyle name="通貨" xfId="2" builtinId="4"/>
     <cellStyle name="桁区切り[0]" xfId="3" builtinId="6"/>
     <cellStyle name="パーセント" xfId="4" builtinId="5"/>
-    <cellStyle name="通貨[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="標準" xfId="5"/>
+    <cellStyle name="通貨[0]" xfId="6" builtinId="7"/>
+    <cellStyle name="桁区切り" xfId="7"/>
+    <cellStyle name="通貨" xfId="8"/>
+    <cellStyle name="桁区切り[0]" xfId="9"/>
+    <cellStyle name="パーセント" xfId="10"/>
+    <cellStyle name="通貨[0]" xfId="11"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -664,11 +863,11 @@
         </a:custGeom>
         <a:gradFill rotWithShape="0">
           <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
             <a:gs pos="100000">
               <a:srgbClr val="9CBEE0"/>
-            </a:gs>
-            <a:gs pos="0">
-              <a:srgbClr val="BBD5F0"/>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
@@ -692,10 +891,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A2:I62"/>
+  <dimension ref="A2:M62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -704,21 +903,25 @@
     <col min="3" max="3" width="112.75" style="1" customWidth="1"/>
     <col min="4" max="4" width="3.625" customWidth="1"/>
     <col min="5" max="5" width="8.125" customWidth="1"/>
-    <col min="6" max="6" width="66" style="1" customWidth="1"/>
-    <col min="7" max="7" width="21.875" customWidth="1"/>
-    <col min="8" max="8" width="3.625" customWidth="1"/>
-    <col min="9" max="9" width="25.7333333333333" customWidth="1"/>
+    <col min="6" max="6" width="23.6666666666667" style="1" customWidth="1"/>
+    <col min="7" max="7" width="24" style="1" customWidth="1"/>
+    <col min="8" max="8" width="22.5" customWidth="1"/>
+    <col min="9" max="9" width="6.375" customWidth="1"/>
+    <col min="10" max="10" width="3.625" customWidth="1"/>
+    <col min="11" max="11" width="8.125" customWidth="1"/>
+    <col min="12" max="12" width="29.1166666666667" customWidth="1"/>
+    <col min="13" max="13" width="23.3833333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:7">
+    <row r="2" spans="3:8">
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:13">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -731,571 +934,812 @@
       <c r="F4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="H4" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="I4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5">
         <v>1</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>8</v>
+      <c r="C5" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
+        <v>12</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5">
+        <v>14</v>
+      </c>
+      <c r="L5" t="s">
+        <v>16</v>
+      </c>
+      <c r="M5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="C6" s="5"/>
+      <c r="E6">
+        <v>6</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>3</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="C7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>8</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>4</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="C8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>9</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>5</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="C9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>6</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>14</v>
+      <c r="C10" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="E10">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I10" t="s">
         <v>15</v>
       </c>
-      <c r="G10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>7</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="C11" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12">
         <v>8</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>18</v>
+      <c r="C12" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="E12">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>44</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13">
         <v>9</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>21</v>
+      <c r="C13" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="E13">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>48</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H13" t="s">
+        <v>50</v>
+      </c>
+      <c r="I13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14">
         <v>10</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>24</v>
+      <c r="C14" s="5" t="s">
+        <v>51</v>
       </c>
       <c r="E14">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>52</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H14" t="s">
+        <v>54</v>
+      </c>
+      <c r="I14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15">
         <v>11</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>27</v>
+      <c r="C15" s="5" t="s">
+        <v>55</v>
       </c>
       <c r="E15">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>56</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H15" t="s">
+        <v>58</v>
+      </c>
+      <c r="I15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16">
         <v>12</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="C16" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16">
+        <v>14</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H16" t="s">
+        <v>62</v>
+      </c>
+      <c r="I16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17">
         <v>13</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E17" t="s">
-        <v>32</v>
+      <c r="C17" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17">
+        <v>16</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>64</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H17" t="s">
+        <v>66</v>
+      </c>
+      <c r="I17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18">
         <v>14</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>35</v>
+      <c r="C18" s="5" t="s">
+        <v>67</v>
       </c>
       <c r="E18">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>68</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H18" t="s">
+        <v>70</v>
+      </c>
+      <c r="I18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19">
         <v>15</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>38</v>
+      <c r="C19" s="5" t="s">
+        <v>71</v>
       </c>
       <c r="E19">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>72</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H19" t="s">
+        <v>74</v>
+      </c>
+      <c r="I19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20">
         <v>16</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>41</v>
+      <c r="C20" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="E20">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>76</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H20" t="s">
+        <v>78</v>
+      </c>
+      <c r="I20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21">
         <v>17</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>44</v>
+      <c r="C21" s="5" t="s">
+        <v>79</v>
       </c>
       <c r="E21">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G21" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>80</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H21" t="s">
+        <v>82</v>
+      </c>
+      <c r="I21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22">
         <v>18</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>47</v>
+      <c r="C22" s="5" t="s">
+        <v>83</v>
       </c>
       <c r="E22">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="G22" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>85</v>
+      </c>
+      <c r="H22" t="s">
+        <v>86</v>
+      </c>
+      <c r="I22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23">
         <v>19</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>50</v>
+      <c r="C23" s="5" t="s">
+        <v>87</v>
       </c>
       <c r="E23">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
+        <v>88</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H23" t="s">
+        <v>90</v>
+      </c>
+      <c r="I23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24">
         <v>20</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="C24" s="5"/>
+      <c r="E24">
+        <v>25</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H24" t="s">
+        <v>93</v>
+      </c>
+      <c r="I24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25">
         <v>21</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="C25" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E25" t="s">
+        <v>95</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H25" t="s">
+        <v>98</v>
+      </c>
+      <c r="I25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26">
         <v>22</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>53</v>
+      <c r="C26" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E26">
+        <v>58</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H26" t="s">
+        <v>101</v>
+      </c>
+      <c r="I26" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
         <v>23</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>54</v>
+      <c r="C27" s="5" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
         <v>24</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>55</v>
+      <c r="C28" s="5" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
         <v>25</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>56</v>
+      <c r="C29" s="5" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
         <v>26</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>57</v>
+      <c r="C30" s="5" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
         <v>27</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>58</v>
+      <c r="C31" s="5" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
         <v>28</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>59</v>
+      <c r="C32" s="5" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
         <v>29</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
+      <c r="C33" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34">
         <v>30</v>
       </c>
+      <c r="C34" s="5"/>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
         <v>31</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>61</v>
+      <c r="C35" s="5" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
         <v>32</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>62</v>
+      <c r="C36" s="5" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
         <v>33</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>63</v>
+      <c r="C37" s="5" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
         <v>34</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>64</v>
+      <c r="C38" s="5" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
         <v>35</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>65</v>
+      <c r="C39" s="5" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
         <v>36</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>66</v>
+      <c r="C40" s="5" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
         <v>37</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>67</v>
+      <c r="C41" s="5" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
         <v>38</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>68</v>
+      <c r="C42" s="5" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
         <v>39</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>69</v>
+      <c r="C43" s="5" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
         <v>40</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>70</v>
+      <c r="C44" s="5" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
         <v>41</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>71</v>
+      <c r="C45" s="5" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
         <v>42</v>
       </c>
-      <c r="C46" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
+      <c r="C46" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
       <c r="A47">
         <v>43</v>
       </c>
+      <c r="C47" s="5"/>
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
         <v>44</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>73</v>
+      <c r="C48" s="5" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
         <v>45</v>
       </c>
-      <c r="C49" s="1" t="s">
-        <v>74</v>
+      <c r="C49" s="5" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
         <v>46</v>
       </c>
-      <c r="C50" s="1" t="s">
-        <v>75</v>
+      <c r="C50" s="5" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
         <v>47</v>
       </c>
-      <c r="C51" s="1" t="s">
-        <v>76</v>
+      <c r="C51" s="5" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
         <v>48</v>
       </c>
-      <c r="C52" s="1" t="s">
-        <v>77</v>
+      <c r="C52" s="5" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
         <v>49</v>
       </c>
-      <c r="C53" s="1" t="s">
-        <v>78</v>
+      <c r="C53" s="5" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
         <v>50</v>
       </c>
-      <c r="C54" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1">
+      <c r="C54" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
       <c r="A55">
         <v>51</v>
       </c>
+      <c r="C55" s="5"/>
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
         <v>52</v>
       </c>
-      <c r="C56" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+      <c r="C56" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
       <c r="A57">
         <v>53</v>
       </c>
-      <c r="C57" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E57" t="s">
-        <v>81</v>
+      <c r="C57" s="5" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
         <v>54</v>
       </c>
-      <c r="C58" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1">
+      <c r="C58" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
       <c r="A59">
         <v>55</v>
       </c>
+      <c r="C59" s="5"/>
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
         <v>56</v>
       </c>
-      <c r="C60" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1">
+      <c r="C60" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
       <c r="A61">
         <v>57</v>
       </c>
+      <c r="C61" s="5"/>
     </row>
     <row r="62" spans="1:3">
       <c r="A62">
         <v>58</v>
       </c>
-      <c r="C62" s="1" t="s">
-        <v>83</v>
+      <c r="C62" s="5" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/sample/サンプル定義書.xlsx
+++ b/sample/サンプル定義書.xlsx
@@ -412,9 +412,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="1">
@@ -485,41 +485,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5">
       <alignment vertical="center"/>
     </xf>
@@ -536,9 +536,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="5" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="5" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="5" applyFill="1" applyBorder="1">
@@ -894,7 +891,7 @@
   <dimension ref="A2:M62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -917,6 +914,10 @@
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
       <c r="H2" t="s">
         <v>1</v>
       </c>
@@ -949,7 +950,7 @@
       <c r="L4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="7" t="s">
+      <c r="M4" s="6" t="s">
         <v>10</v>
       </c>
     </row>

--- a/sample/サンプル定義書.xlsx
+++ b/sample/サンプル定義書.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128">
   <si>
     <t>サンプルメール</t>
   </si>
@@ -131,9 +131,6 @@
     <t>■公演情報</t>
   </si>
   <si>
-    <t>13,16,17</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
@@ -209,6 +206,9 @@
     <t xml:space="preserve">全席指定  3枚  </t>
   </si>
   <si>
+    <t>1階 13列 26番-28番</t>
+  </si>
+  <si>
     <t>9,360</t>
   </si>
   <si>
@@ -218,7 +218,7 @@
     <t>ticketTotalAmount</t>
   </si>
   <si>
-    <t>1階 13列 26番-28番</t>
+    <t>■料金明細</t>
   </si>
   <si>
     <t>216</t>
@@ -230,7 +230,10 @@
     <t>systemUseAmount</t>
   </si>
   <si>
-    <t>■料金明細</t>
+    <t>チケット料金:全席指定 3枚 計9,360円</t>
+  </si>
+  <si>
+    <t>システム利用料:216円 × 3枚 計 648円</t>
   </si>
   <si>
     <t>648</t>
@@ -242,7 +245,7 @@
     <t>systemUseTotalAmount</t>
   </si>
   <si>
-    <t>チケット料金:全席指定 3枚 計9,360円</t>
+    <t>配送手数料:617円</t>
   </si>
   <si>
     <t>617</t>
@@ -254,7 +257,7 @@
     <t>shippingCharges</t>
   </si>
   <si>
-    <t>システム利用料:216円 × 3枚 計 648円</t>
+    <t>合計金額:計 10,625円</t>
   </si>
   <si>
     <t>10,625</t>
@@ -266,9 +269,6 @@
     <t>totalAmount</t>
   </si>
   <si>
-    <t>配送手数料:617円</t>
-  </si>
-  <si>
     <t>クレジットカード</t>
   </si>
   <si>
@@ -278,7 +278,7 @@
     <t>paymentMethod</t>
   </si>
   <si>
-    <t>合計金額:計 10,625円</t>
+    <t>■決済方法</t>
   </si>
   <si>
     <t>VISA</t>
@@ -299,10 +299,7 @@
     <t>takeOffMethod</t>
   </si>
   <si>
-    <t>■決済方法</t>
-  </si>
-  <si>
-    <t>53-56</t>
+    <t>登録名:VISA</t>
   </si>
   <si>
     <t>$PLUGTEXT$</t>
@@ -314,6 +311,15 @@
     <t>plugTextNotice</t>
   </si>
   <si>
+    <t>■引取方法</t>
+  </si>
+  <si>
+    <t>お届け先:基本情報</t>
+  </si>
+  <si>
+    <t>◆決済について</t>
+  </si>
+  <si>
     <t>$INCLUDE$</t>
   </si>
   <si>
@@ -321,18 +327,6 @@
   </si>
   <si>
     <t>footer</t>
-  </si>
-  <si>
-    <t>登録名:VISA</t>
-  </si>
-  <si>
-    <t>■引取方法</t>
-  </si>
-  <si>
-    <t>お届け先:基本情報</t>
-  </si>
-  <si>
-    <t>◆決済について</t>
   </si>
   <si>
     <t>ご登録の決済方法にてお支払い手続きは完了しています。</t>
@@ -413,8 +407,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="1">
@@ -485,10 +479,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -503,10 +497,10 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -891,7 +885,7 @@
   <dimension ref="A2:M62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -914,10 +908,6 @@
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D2"/>
-      <c r="E2"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
       <c r="H2" t="s">
         <v>1</v>
       </c>
@@ -1106,20 +1096,20 @@
       <c r="C11" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11">
+        <v>13</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="H11" t="s">
         <v>40</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>41</v>
-      </c>
-      <c r="I11" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1127,22 +1117,22 @@
         <v>8</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E12">
         <v>14</v>
       </c>
       <c r="F12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="H12" t="s">
         <v>45</v>
       </c>
-      <c r="H12" t="s">
-        <v>46</v>
-      </c>
       <c r="I12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1150,22 +1140,22 @@
         <v>9</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E13">
         <v>14</v>
       </c>
       <c r="F13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="H13" t="s">
         <v>49</v>
       </c>
-      <c r="H13" t="s">
-        <v>50</v>
-      </c>
       <c r="I13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1173,22 +1163,22 @@
         <v>10</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E14">
         <v>14</v>
       </c>
       <c r="F14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="H14" t="s">
         <v>53</v>
       </c>
-      <c r="H14" t="s">
-        <v>54</v>
-      </c>
       <c r="I14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1196,19 +1186,19 @@
         <v>11</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E15">
         <v>14</v>
       </c>
       <c r="F15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="H15" t="s">
         <v>57</v>
-      </c>
-      <c r="H15" t="s">
-        <v>58</v>
       </c>
       <c r="I15" t="s">
         <v>15</v>
@@ -1219,22 +1209,22 @@
         <v>12</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E16">
         <v>14</v>
       </c>
       <c r="F16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="H16" t="s">
         <v>61</v>
       </c>
-      <c r="H16" t="s">
-        <v>62</v>
-      </c>
       <c r="I16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1242,22 +1232,22 @@
         <v>13</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E17">
         <v>16</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="H17" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="I17" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1265,19 +1255,19 @@
         <v>14</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H18" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="I18" t="s">
         <v>15</v>
@@ -1288,19 +1278,19 @@
         <v>15</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E19">
         <v>17</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H19" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="I19" t="s">
         <v>15</v>
@@ -1311,22 +1301,22 @@
         <v>16</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E20">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="H20" t="s">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="I20" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1334,19 +1324,19 @@
         <v>17</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E21">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H21" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="I21" t="s">
         <v>15</v>
@@ -1357,19 +1347,19 @@
         <v>18</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="E22">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G22" t="s">
-        <v>85</v>
+        <v>77</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="H22" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="I22" t="s">
         <v>15</v>
@@ -1380,19 +1370,19 @@
         <v>19</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="E23">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="H23" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="I23" t="s">
         <v>15</v>
@@ -1404,16 +1394,16 @@
       </c>
       <c r="C24" s="5"/>
       <c r="E24">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>92</v>
+        <v>84</v>
+      </c>
+      <c r="G24" t="s">
+        <v>85</v>
       </c>
       <c r="H24" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="I24" t="s">
         <v>15</v>
@@ -1424,19 +1414,19 @@
         <v>21</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E25" t="s">
-        <v>95</v>
+        <v>87</v>
+      </c>
+      <c r="E25">
+        <v>23</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="H25" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="I25" t="s">
         <v>15</v>
@@ -1450,59 +1440,134 @@
         <v>84</v>
       </c>
       <c r="E26">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="H26" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="I26" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27">
         <v>23</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+        <v>94</v>
+      </c>
+      <c r="E27">
+        <v>53</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H27" t="s">
+        <v>97</v>
+      </c>
+      <c r="I27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28">
         <v>24</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>98</v>
+      </c>
+      <c r="E28">
+        <v>54</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H28" t="s">
+        <v>97</v>
+      </c>
+      <c r="I28" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29">
         <v>25</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="E29">
+        <v>55</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H29" t="s">
+        <v>97</v>
+      </c>
+      <c r="I29" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30">
         <v>26</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>99</v>
+      </c>
+      <c r="E30">
+        <v>56</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H30" t="s">
+        <v>97</v>
+      </c>
+      <c r="I30" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31">
         <v>27</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>105</v>
+        <v>100</v>
+      </c>
+      <c r="E31">
+        <v>58</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H31" t="s">
+        <v>103</v>
+      </c>
+      <c r="I31" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1510,7 +1575,7 @@
         <v>28</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1518,7 +1583,7 @@
         <v>29</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1532,7 +1597,7 @@
         <v>31</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1540,7 +1605,7 @@
         <v>32</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1548,7 +1613,7 @@
         <v>33</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1556,7 +1621,7 @@
         <v>34</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1564,7 +1629,7 @@
         <v>35</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1572,7 +1637,7 @@
         <v>36</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1580,7 +1645,7 @@
         <v>37</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1588,7 +1653,7 @@
         <v>38</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1596,7 +1661,7 @@
         <v>39</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1604,7 +1669,7 @@
         <v>40</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1612,7 +1677,7 @@
         <v>41</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1620,7 +1685,7 @@
         <v>42</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1634,7 +1699,7 @@
         <v>44</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1642,7 +1707,7 @@
         <v>45</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1650,7 +1715,7 @@
         <v>46</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1658,7 +1723,7 @@
         <v>47</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1666,7 +1731,7 @@
         <v>48</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1674,7 +1739,7 @@
         <v>49</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1682,7 +1747,7 @@
         <v>50</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1696,7 +1761,7 @@
         <v>52</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1704,7 +1769,7 @@
         <v>53</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1712,7 +1777,7 @@
         <v>54</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1726,7 +1791,7 @@
         <v>56</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1740,7 +1805,7 @@
         <v>58</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/sample/サンプル定義書.xlsx
+++ b/sample/サンプル定義書.xlsx
@@ -15,7 +15,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127">
+  <si>
+    <t>置換変数</t>
+  </si>
   <si>
     <t>サンプルメール</t>
   </si>
@@ -38,9 +41,6 @@
     <t>ラベル</t>
   </si>
   <si>
-    <t>置換変数</t>
-  </si>
-  <si>
     <t>型</t>
   </si>
   <si>
@@ -320,13 +320,13 @@
     <t>◆決済について</t>
   </si>
   <si>
-    <t>$INCLUDE$</t>
-  </si>
-  <si>
-    <t>共通フッター</t>
-  </si>
-  <si>
-    <t>footer</t>
+    <t>＜共通フッター＞</t>
+  </si>
+  <si>
+    <t>「共通フッター」インクルード</t>
+  </si>
+  <si>
+    <t>$INCLUDE$footer</t>
   </si>
   <si>
     <t>ご登録の決済方法にてお支払い手続きは完了しています。</t>
@@ -396,9 +396,6 @@
   </si>
   <si>
     <t>お申し込みはカンタン。マイページの購入履歴画面よりどうぞ</t>
-  </si>
-  <si>
-    <t>＜共通フッター＞</t>
   </si>
 </sst>
 </file>
@@ -406,10 +403,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -450,9 +447,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -465,7 +460,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -479,60 +476,66 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="5" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="5" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="5" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="5" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="5" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="5" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="5" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="5" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -882,10 +885,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A2:M62"/>
+  <dimension ref="A1:M62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -895,52 +898,57 @@
     <col min="4" max="4" width="3.625" customWidth="1"/>
     <col min="5" max="5" width="8.125" customWidth="1"/>
     <col min="6" max="6" width="23.6666666666667" style="1" customWidth="1"/>
-    <col min="7" max="7" width="24" style="1" customWidth="1"/>
+    <col min="7" max="7" width="25.75" style="1" customWidth="1"/>
     <col min="8" max="8" width="22.5" customWidth="1"/>
-    <col min="9" max="9" width="6.375" customWidth="1"/>
+    <col min="9" max="9" width="6.375" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="3.625" customWidth="1"/>
-    <col min="11" max="11" width="8.125" customWidth="1"/>
-    <col min="12" max="12" width="29.1166666666667" customWidth="1"/>
-    <col min="13" max="13" width="23.3833333333333" customWidth="1"/>
+    <col min="11" max="11" width="8.125" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="29.1166666666667" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="23.3833333333333" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="8:8">
+      <c r="H1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
     <row r="2" spans="3:8">
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="3" t="s">
+      <c r="I4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="L4" s="2" t="s">
+      <c r="L4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="M4" s="8" t="s">
         <v>10</v>
       </c>
     </row>
@@ -948,7 +956,7 @@
       <c r="A5">
         <v>1</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E5">
@@ -980,7 +988,7 @@
       <c r="A6">
         <v>2</v>
       </c>
-      <c r="C6" s="5"/>
+      <c r="C6" s="7"/>
       <c r="E6">
         <v>6</v>
       </c>
@@ -1001,7 +1009,7 @@
       <c r="A7">
         <v>3</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="7" t="s">
         <v>21</v>
       </c>
       <c r="E7">
@@ -1024,7 +1032,7 @@
       <c r="A8">
         <v>4</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E8">
@@ -1047,7 +1055,7 @@
       <c r="A9">
         <v>5</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="7" t="s">
         <v>29</v>
       </c>
       <c r="E9">
@@ -1070,7 +1078,7 @@
       <c r="A10">
         <v>6</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="7" t="s">
         <v>33</v>
       </c>
       <c r="E10">
@@ -1093,7 +1101,7 @@
       <c r="A11">
         <v>7</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="7" t="s">
         <v>37</v>
       </c>
       <c r="E11">
@@ -1116,7 +1124,7 @@
       <c r="A12">
         <v>8</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="7" t="s">
         <v>42</v>
       </c>
       <c r="E12">
@@ -1139,7 +1147,7 @@
       <c r="A13">
         <v>9</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="7" t="s">
         <v>46</v>
       </c>
       <c r="E13">
@@ -1162,7 +1170,7 @@
       <c r="A14">
         <v>10</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="7" t="s">
         <v>50</v>
       </c>
       <c r="E14">
@@ -1185,7 +1193,7 @@
       <c r="A15">
         <v>11</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="7" t="s">
         <v>54</v>
       </c>
       <c r="E15">
@@ -1208,7 +1216,7 @@
       <c r="A16">
         <v>12</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="7" t="s">
         <v>58</v>
       </c>
       <c r="E16">
@@ -1231,7 +1239,7 @@
       <c r="A17">
         <v>13</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="7" t="s">
         <v>62</v>
       </c>
       <c r="E17">
@@ -1254,7 +1262,7 @@
       <c r="A18">
         <v>14</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="7" t="s">
         <v>63</v>
       </c>
       <c r="E18">
@@ -1277,7 +1285,7 @@
       <c r="A19">
         <v>15</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="7" t="s">
         <v>67</v>
       </c>
       <c r="E19">
@@ -1300,7 +1308,7 @@
       <c r="A20">
         <v>16</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="7" t="s">
         <v>71</v>
       </c>
       <c r="E20">
@@ -1323,7 +1331,7 @@
       <c r="A21">
         <v>17</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="7" t="s">
         <v>72</v>
       </c>
       <c r="E21">
@@ -1346,7 +1354,7 @@
       <c r="A22">
         <v>18</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="7" t="s">
         <v>76</v>
       </c>
       <c r="E22">
@@ -1369,7 +1377,7 @@
       <c r="A23">
         <v>19</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="7" t="s">
         <v>80</v>
       </c>
       <c r="E23">
@@ -1392,7 +1400,7 @@
       <c r="A24">
         <v>20</v>
       </c>
-      <c r="C24" s="5"/>
+      <c r="C24" s="7"/>
       <c r="E24">
         <v>22</v>
       </c>
@@ -1413,7 +1421,7 @@
       <c r="A25">
         <v>21</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="7" t="s">
         <v>87</v>
       </c>
       <c r="E25">
@@ -1436,7 +1444,7 @@
       <c r="A26">
         <v>22</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="7" t="s">
         <v>84</v>
       </c>
       <c r="E26">
@@ -1459,7 +1467,7 @@
       <c r="A27">
         <v>23</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="7" t="s">
         <v>94</v>
       </c>
       <c r="E27">
@@ -1482,7 +1490,7 @@
       <c r="A28">
         <v>24</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="7" t="s">
         <v>98</v>
       </c>
       <c r="E28">
@@ -1505,7 +1513,7 @@
       <c r="A29">
         <v>25</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="7" t="s">
         <v>91</v>
       </c>
       <c r="E29">
@@ -1528,7 +1536,7 @@
       <c r="A30">
         <v>26</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="7" t="s">
         <v>99</v>
       </c>
       <c r="E30">
@@ -1551,7 +1559,7 @@
       <c r="A31">
         <v>27</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="7" t="s">
         <v>100</v>
       </c>
       <c r="E31">
@@ -1574,7 +1582,7 @@
       <c r="A32">
         <v>28</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="7" t="s">
         <v>104</v>
       </c>
     </row>
@@ -1582,7 +1590,7 @@
       <c r="A33">
         <v>29</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="7" t="s">
         <v>105</v>
       </c>
     </row>
@@ -1590,13 +1598,13 @@
       <c r="A34">
         <v>30</v>
       </c>
-      <c r="C34" s="5"/>
+      <c r="C34" s="7"/>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
         <v>31</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="7" t="s">
         <v>106</v>
       </c>
     </row>
@@ -1604,7 +1612,7 @@
       <c r="A36">
         <v>32</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="7" t="s">
         <v>107</v>
       </c>
     </row>
@@ -1612,7 +1620,7 @@
       <c r="A37">
         <v>33</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="7" t="s">
         <v>108</v>
       </c>
     </row>
@@ -1620,7 +1628,7 @@
       <c r="A38">
         <v>34</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="7" t="s">
         <v>109</v>
       </c>
     </row>
@@ -1628,7 +1636,7 @@
       <c r="A39">
         <v>35</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C39" s="7" t="s">
         <v>110</v>
       </c>
     </row>
@@ -1636,7 +1644,7 @@
       <c r="A40">
         <v>36</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C40" s="7" t="s">
         <v>111</v>
       </c>
     </row>
@@ -1644,7 +1652,7 @@
       <c r="A41">
         <v>37</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C41" s="7" t="s">
         <v>112</v>
       </c>
     </row>
@@ -1652,7 +1660,7 @@
       <c r="A42">
         <v>38</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C42" s="7" t="s">
         <v>113</v>
       </c>
     </row>
@@ -1660,7 +1668,7 @@
       <c r="A43">
         <v>39</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C43" s="7" t="s">
         <v>114</v>
       </c>
     </row>
@@ -1668,7 +1676,7 @@
       <c r="A44">
         <v>40</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="C44" s="7" t="s">
         <v>115</v>
       </c>
     </row>
@@ -1676,7 +1684,7 @@
       <c r="A45">
         <v>41</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="C45" s="7" t="s">
         <v>116</v>
       </c>
     </row>
@@ -1684,7 +1692,7 @@
       <c r="A46">
         <v>42</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="C46" s="7" t="s">
         <v>117</v>
       </c>
     </row>
@@ -1692,13 +1700,13 @@
       <c r="A47">
         <v>43</v>
       </c>
-      <c r="C47" s="5"/>
+      <c r="C47" s="7"/>
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
         <v>44</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="C48" s="7" t="s">
         <v>118</v>
       </c>
     </row>
@@ -1706,7 +1714,7 @@
       <c r="A49">
         <v>45</v>
       </c>
-      <c r="C49" s="5" t="s">
+      <c r="C49" s="7" t="s">
         <v>119</v>
       </c>
     </row>
@@ -1714,7 +1722,7 @@
       <c r="A50">
         <v>46</v>
       </c>
-      <c r="C50" s="5" t="s">
+      <c r="C50" s="7" t="s">
         <v>120</v>
       </c>
     </row>
@@ -1722,7 +1730,7 @@
       <c r="A51">
         <v>47</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="C51" s="7" t="s">
         <v>121</v>
       </c>
     </row>
@@ -1730,7 +1738,7 @@
       <c r="A52">
         <v>48</v>
       </c>
-      <c r="C52" s="5" t="s">
+      <c r="C52" s="7" t="s">
         <v>122</v>
       </c>
     </row>
@@ -1738,7 +1746,7 @@
       <c r="A53">
         <v>49</v>
       </c>
-      <c r="C53" s="5" t="s">
+      <c r="C53" s="7" t="s">
         <v>123</v>
       </c>
     </row>
@@ -1746,7 +1754,7 @@
       <c r="A54">
         <v>50</v>
       </c>
-      <c r="C54" s="5" t="s">
+      <c r="C54" s="7" t="s">
         <v>124</v>
       </c>
     </row>
@@ -1754,13 +1762,13 @@
       <c r="A55">
         <v>51</v>
       </c>
-      <c r="C55" s="5"/>
+      <c r="C55" s="7"/>
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
         <v>52</v>
       </c>
-      <c r="C56" s="5" t="s">
+      <c r="C56" s="7" t="s">
         <v>120</v>
       </c>
     </row>
@@ -1768,7 +1776,7 @@
       <c r="A57">
         <v>53</v>
       </c>
-      <c r="C57" s="5" t="s">
+      <c r="C57" s="7" t="s">
         <v>125</v>
       </c>
     </row>
@@ -1776,7 +1784,7 @@
       <c r="A58">
         <v>54</v>
       </c>
-      <c r="C58" s="5" t="s">
+      <c r="C58" s="7" t="s">
         <v>126</v>
       </c>
     </row>
@@ -1784,13 +1792,13 @@
       <c r="A59">
         <v>55</v>
       </c>
-      <c r="C59" s="5"/>
+      <c r="C59" s="7"/>
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
         <v>56</v>
       </c>
-      <c r="C60" s="5" t="s">
+      <c r="C60" s="7" t="s">
         <v>120</v>
       </c>
     </row>
@@ -1798,14 +1806,14 @@
       <c r="A61">
         <v>57</v>
       </c>
-      <c r="C61" s="5"/>
+      <c r="C61" s="7"/>
     </row>
     <row r="62" spans="1:3">
       <c r="A62">
         <v>58</v>
       </c>
-      <c r="C62" s="5" t="s">
-        <v>127</v>
+      <c r="C62" s="7" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/sample/サンプル定義書.xlsx
+++ b/sample/サンプル定義書.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\workspace\work-VelocityTemplateGen\sample\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28710" windowHeight="12990" tabRatio="689"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28710" windowHeight="12990" tabRatio="689" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="サンプルシート" sheetId="1" r:id="rId1"/>
+    <sheet name="サンプルシート (2)" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <extLst/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="137">
   <si>
     <t>置換変数</t>
   </si>
@@ -396,26 +401,145 @@
   </si>
   <si>
     <t>お申し込みはカンタン。マイページの購入履歴画面よりどうぞ</t>
+  </si>
+  <si>
+    <t>■ サンプルメール</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>件名</t>
+    <rPh sb="0" eb="2">
+      <t>ケンメイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>項目番号</t>
+    <rPh sb="0" eb="4">
+      <t>コウモクバンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>説明</t>
+    <rPh sb="0" eb="2">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>置換対象</t>
+    <rPh sb="0" eb="2">
+      <t>チカン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>置換変数</t>
+    <rPh sb="0" eb="2">
+      <t>チカン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヘンスウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>from</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>to</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>returnPath</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>【PC】
+abc@xxx.jp
+【PC・機能１時】
+公演社名&lt;def@yyy.jp&gt;
+【モバイル】
+mbAbc@zzz.jp
+■通常
+PPPPチケットサービス&lt;abc@xxx.jp&gt;
+■機能１時
+公演社名 PPPPチケットサービス&lt;abc@xxx.jp&gt;</t>
+    <rPh sb="20" eb="22">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>コウエン</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>シャ</t>
+    </rPh>
+    <rPh sb="94" eb="96">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="97" eb="98">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="99" eb="101">
+      <t>コウエン</t>
+    </rPh>
+    <rPh sb="101" eb="102">
+      <t>シャ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_-&quot;¥&quot;* #,##0.00_-\ ;\-&quot;¥&quot;* #,##0.00_-\ ;_-&quot;¥&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="&quot;【&quot;0&quot;】&quot;"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -434,8 +558,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -471,88 +613,303 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="12">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+  </cellStyleXfs>
+  <cellXfs count="33">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="9">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="5" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="5" applyBorder="1">
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="5" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="5" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="5" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="8" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="12" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="13" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="12">
+  <cellStyles count="4">
+    <cellStyle name="桁区切り[0]" xfId="2"/>
+    <cellStyle name="通貨[0]" xfId="3"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="桁区切り" xfId="1" builtinId="3"/>
-    <cellStyle name="通貨" xfId="2" builtinId="4"/>
-    <cellStyle name="桁区切り[0]" xfId="3" builtinId="6"/>
-    <cellStyle name="パーセント" xfId="4" builtinId="5"/>
-    <cellStyle name="標準" xfId="5"/>
-    <cellStyle name="通貨[0]" xfId="6" builtinId="7"/>
-    <cellStyle name="桁区切り" xfId="7"/>
-    <cellStyle name="通貨" xfId="8"/>
-    <cellStyle name="桁区切り[0]" xfId="9"/>
-    <cellStyle name="パーセント" xfId="10"/>
-    <cellStyle name="通貨[0]" xfId="11"/>
+    <cellStyle name="標準 2" xfId="1"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -851,6 +1208,7 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -883,36 +1241,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="3.625" customWidth="1"/>
     <col min="3" max="3" width="112.75" style="1" customWidth="1"/>
     <col min="4" max="4" width="3.625" customWidth="1"/>
     <col min="5" max="5" width="8.125" customWidth="1"/>
-    <col min="6" max="6" width="23.6666666666667" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.625" style="1" customWidth="1"/>
     <col min="7" max="7" width="25.75" style="1" customWidth="1"/>
     <col min="8" max="8" width="22.5" customWidth="1"/>
     <col min="9" max="9" width="6.375" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="3.625" customWidth="1"/>
     <col min="11" max="11" width="8.125" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="29.1166666666667" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="23.3833333333333" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="29.125" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="23.375" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="8:8">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="H1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="3:8">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
@@ -920,7 +1277,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
@@ -952,7 +1309,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>1</v>
       </c>
@@ -984,7 +1341,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>2</v>
       </c>
@@ -1005,7 +1362,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>3</v>
       </c>
@@ -1028,7 +1385,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>4</v>
       </c>
@@ -1051,7 +1408,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>5</v>
       </c>
@@ -1074,7 +1431,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>6</v>
       </c>
@@ -1097,7 +1454,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>7</v>
       </c>
@@ -1120,7 +1477,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>8</v>
       </c>
@@ -1143,7 +1500,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>9</v>
       </c>
@@ -1166,7 +1523,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>10</v>
       </c>
@@ -1189,7 +1546,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>11</v>
       </c>
@@ -1212,7 +1569,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>12</v>
       </c>
@@ -1235,7 +1592,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>13</v>
       </c>
@@ -1258,7 +1615,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>14</v>
       </c>
@@ -1281,7 +1638,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>15</v>
       </c>
@@ -1304,7 +1661,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>16</v>
       </c>
@@ -1327,7 +1684,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>17</v>
       </c>
@@ -1350,7 +1707,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>18</v>
       </c>
@@ -1373,7 +1730,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>19</v>
       </c>
@@ -1396,7 +1753,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>20</v>
       </c>
@@ -1417,7 +1774,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>21</v>
       </c>
@@ -1440,7 +1797,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>22</v>
       </c>
@@ -1463,7 +1820,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>23</v>
       </c>
@@ -1486,7 +1843,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>24</v>
       </c>
@@ -1509,7 +1866,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>25</v>
       </c>
@@ -1532,7 +1889,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>26</v>
       </c>
@@ -1555,7 +1912,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>27</v>
       </c>
@@ -1578,7 +1935,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>28</v>
       </c>
@@ -1586,7 +1943,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>29</v>
       </c>
@@ -1594,13 +1951,13 @@
         <v>105</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>30</v>
       </c>
       <c r="C34" s="7"/>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>31</v>
       </c>
@@ -1608,7 +1965,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>32</v>
       </c>
@@ -1616,7 +1973,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>33</v>
       </c>
@@ -1624,7 +1981,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>34</v>
       </c>
@@ -1632,7 +1989,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>35</v>
       </c>
@@ -1640,7 +1997,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>36</v>
       </c>
@@ -1648,7 +2005,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>37</v>
       </c>
@@ -1656,7 +2013,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>38</v>
       </c>
@@ -1664,7 +2021,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>39</v>
       </c>
@@ -1672,7 +2029,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>40</v>
       </c>
@@ -1680,7 +2037,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>41</v>
       </c>
@@ -1688,7 +2045,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>42</v>
       </c>
@@ -1696,13 +2053,13 @@
         <v>117</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>43</v>
       </c>
       <c r="C47" s="7"/>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>44</v>
       </c>
@@ -1710,7 +2067,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>45</v>
       </c>
@@ -1718,7 +2075,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>46</v>
       </c>
@@ -1726,7 +2083,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>47</v>
       </c>
@@ -1734,7 +2091,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A52">
         <v>48</v>
       </c>
@@ -1742,7 +2099,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A53">
         <v>49</v>
       </c>
@@ -1750,7 +2107,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A54">
         <v>50</v>
       </c>
@@ -1758,13 +2115,13 @@
         <v>124</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A55">
         <v>51</v>
       </c>
       <c r="C55" s="7"/>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A56">
         <v>52</v>
       </c>
@@ -1772,7 +2129,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A57">
         <v>53</v>
       </c>
@@ -1780,7 +2137,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A58">
         <v>54</v>
       </c>
@@ -1788,13 +2145,13 @@
         <v>126</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A59">
         <v>55</v>
       </c>
       <c r="C59" s="7"/>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A60">
         <v>56</v>
       </c>
@@ -1802,13 +2159,13 @@
         <v>120</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A61">
         <v>57</v>
       </c>
       <c r="C61" s="7"/>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A62">
         <v>58</v>
       </c>
@@ -1817,7 +2174,1084 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N64"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="2" width="3.625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="112.75" style="13" customWidth="1"/>
+    <col min="4" max="5" width="3.625" style="12" customWidth="1"/>
+    <col min="6" max="6" width="11.25" style="12" customWidth="1"/>
+    <col min="7" max="7" width="44.625" style="13" customWidth="1"/>
+    <col min="8" max="8" width="55" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.5" style="12" customWidth="1"/>
+    <col min="10" max="10" width="6.375" style="12" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="3.625" style="12" customWidth="1"/>
+    <col min="12" max="12" width="8.125" style="12" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="29.125" style="12" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="23.375" style="12" hidden="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="I1" s="11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="B2" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" s="15"/>
+      <c r="I2" s="16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A4" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="J4" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="M4" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="N4" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="156.75" x14ac:dyDescent="0.15">
+      <c r="A5" s="12">
+        <v>1</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="F5" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="G5" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" s="12">
+        <v>14</v>
+      </c>
+      <c r="M5" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="N5" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A6" s="12">
+        <v>2</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="F6" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="G6" s="17"/>
+      <c r="J6" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A7" s="12">
+        <v>3</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="F7" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="G7" s="17"/>
+      <c r="J7" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A8" s="12">
+        <v>4</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="J8" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A9" s="12">
+        <v>5</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="F9" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="G9" s="17"/>
+      <c r="J9" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A10" s="12">
+        <v>6</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="J10" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A11" s="12">
+        <v>7</v>
+      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="J11" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A12" s="12">
+        <v>8</v>
+      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="J12" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A13" s="12">
+        <v>9</v>
+      </c>
+      <c r="B13" s="9"/>
+      <c r="C13" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="F13" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="G13" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="H13" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="I13" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A14" s="12">
+        <v>10</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="F14" s="27">
+        <v>1</v>
+      </c>
+      <c r="G14" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A15" s="12">
+        <v>11</v>
+      </c>
+      <c r="B15" s="9"/>
+      <c r="C15" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="F15" s="22">
+        <v>6</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A16" s="12">
+        <v>12</v>
+      </c>
+      <c r="B16" s="9"/>
+      <c r="C16" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="F16" s="22">
+        <v>8</v>
+      </c>
+      <c r="G16" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A17" s="12">
+        <v>13</v>
+      </c>
+      <c r="B17" s="9"/>
+      <c r="C17" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="F17" s="22">
+        <v>9</v>
+      </c>
+      <c r="G17" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="I17" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A18" s="12">
+        <v>14</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="9"/>
+      <c r="F18" s="22">
+        <v>10</v>
+      </c>
+      <c r="G18" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="H18" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="I18" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A19" s="12">
+        <v>15</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" s="9"/>
+      <c r="F19" s="22">
+        <v>11</v>
+      </c>
+      <c r="G19" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="I19" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="J19" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A20" s="12">
+        <v>16</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="9"/>
+      <c r="F20" s="22">
+        <v>13</v>
+      </c>
+      <c r="G20" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="H20" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="I20" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="J20" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A21" s="12">
+        <v>17</v>
+      </c>
+      <c r="B21" s="9"/>
+      <c r="C21" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" s="9"/>
+      <c r="F21" s="22">
+        <v>14</v>
+      </c>
+      <c r="G21" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="H21" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="I21" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="J21" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A22" s="12">
+        <v>18</v>
+      </c>
+      <c r="B22" s="9"/>
+      <c r="C22" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="F22" s="22">
+        <v>14</v>
+      </c>
+      <c r="G22" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="H22" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="J22" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A23" s="12">
+        <v>19</v>
+      </c>
+      <c r="B23" s="9"/>
+      <c r="C23" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" s="9"/>
+      <c r="F23" s="22">
+        <v>14</v>
+      </c>
+      <c r="G23" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="H23" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="I23" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="J23" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A24" s="12">
+        <v>20</v>
+      </c>
+      <c r="B24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="F24" s="22">
+        <v>14</v>
+      </c>
+      <c r="G24" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="H24" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="I24" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="J24" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A25" s="12">
+        <v>21</v>
+      </c>
+      <c r="B25" s="9"/>
+      <c r="C25" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D25" s="9"/>
+      <c r="F25" s="22">
+        <v>14</v>
+      </c>
+      <c r="G25" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="H25" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="I25" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="J25" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A26" s="12">
+        <v>22</v>
+      </c>
+      <c r="B26" s="9"/>
+      <c r="C26" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D26" s="9"/>
+      <c r="F26" s="22">
+        <v>16</v>
+      </c>
+      <c r="G26" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="H26" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="I26" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="J26" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A27" s="12">
+        <v>23</v>
+      </c>
+      <c r="B27" s="9"/>
+      <c r="C27" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D27" s="9"/>
+      <c r="F27" s="22">
+        <v>16</v>
+      </c>
+      <c r="G27" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="H27" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="I27" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="J27" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A28" s="12">
+        <v>24</v>
+      </c>
+      <c r="B28" s="9"/>
+      <c r="C28" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="D28" s="9"/>
+      <c r="F28" s="22">
+        <v>17</v>
+      </c>
+      <c r="G28" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="H28" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="I28" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="J28" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A29" s="12">
+        <v>25</v>
+      </c>
+      <c r="B29" s="9"/>
+      <c r="C29" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D29" s="9"/>
+      <c r="F29" s="22">
+        <v>17</v>
+      </c>
+      <c r="G29" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="H29" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="I29" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="J29" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A30" s="12">
+        <v>26</v>
+      </c>
+      <c r="B30" s="9"/>
+      <c r="C30" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="D30" s="9"/>
+      <c r="F30" s="22">
+        <v>17</v>
+      </c>
+      <c r="G30" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="H30" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="I30" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J30" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A31" s="12">
+        <v>27</v>
+      </c>
+      <c r="B31" s="9"/>
+      <c r="C31" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="D31" s="9"/>
+      <c r="F31" s="22">
+        <v>18</v>
+      </c>
+      <c r="G31" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="H31" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="I31" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="J31" s="12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A32" s="12">
+        <v>28</v>
+      </c>
+      <c r="B32" s="9"/>
+      <c r="C32" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D32" s="9"/>
+      <c r="F32" s="22">
+        <v>19</v>
+      </c>
+      <c r="G32" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="H32" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="I32" s="23" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A33" s="12">
+        <v>29</v>
+      </c>
+      <c r="B33" s="9"/>
+      <c r="C33" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="D33" s="9"/>
+      <c r="F33" s="22">
+        <v>22</v>
+      </c>
+      <c r="G33" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="H33" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="I33" s="23" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A34" s="12">
+        <v>30</v>
+      </c>
+      <c r="B34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="F34" s="22">
+        <v>23</v>
+      </c>
+      <c r="G34" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="H34" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="I34" s="23" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A35" s="12">
+        <v>31</v>
+      </c>
+      <c r="B35" s="9"/>
+      <c r="C35" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="D35" s="9"/>
+      <c r="F35" s="22">
+        <v>25</v>
+      </c>
+      <c r="G35" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="H35" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="I35" s="23" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A36" s="12">
+        <v>32</v>
+      </c>
+      <c r="B36" s="9"/>
+      <c r="C36" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="D36" s="9"/>
+      <c r="F36" s="22">
+        <v>53</v>
+      </c>
+      <c r="G36" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="H36" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="I36" s="23" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A37" s="12">
+        <v>33</v>
+      </c>
+      <c r="B37" s="9"/>
+      <c r="C37" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="D37" s="9"/>
+      <c r="F37" s="22">
+        <v>54</v>
+      </c>
+      <c r="G37" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="H37" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="I37" s="23" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A38" s="12">
+        <v>34</v>
+      </c>
+      <c r="B38" s="9"/>
+      <c r="C38" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="D38" s="9"/>
+      <c r="F38" s="22">
+        <v>55</v>
+      </c>
+      <c r="G38" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="H38" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="I38" s="23" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A39" s="12">
+        <v>35</v>
+      </c>
+      <c r="B39" s="9"/>
+      <c r="C39" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="D39" s="9"/>
+      <c r="F39" s="22">
+        <v>56</v>
+      </c>
+      <c r="G39" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="H39" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="I39" s="23" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A40" s="12">
+        <v>36</v>
+      </c>
+      <c r="B40" s="9"/>
+      <c r="C40" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D40" s="9"/>
+      <c r="F40" s="20">
+        <v>58</v>
+      </c>
+      <c r="G40" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="H40" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="I40" s="21" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A41" s="12">
+        <v>37</v>
+      </c>
+      <c r="B41" s="9"/>
+      <c r="C41" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="D41" s="9"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A42" s="12">
+        <v>38</v>
+      </c>
+      <c r="B42" s="9"/>
+      <c r="C42" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="D42" s="9"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A43" s="12">
+        <v>39</v>
+      </c>
+      <c r="B43" s="9"/>
+      <c r="C43" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="D43" s="9"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A44" s="12">
+        <v>40</v>
+      </c>
+      <c r="B44" s="9"/>
+      <c r="C44" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="D44" s="9"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A45" s="12">
+        <v>41</v>
+      </c>
+      <c r="B45" s="9"/>
+      <c r="C45" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="D45" s="9"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A46" s="12">
+        <v>42</v>
+      </c>
+      <c r="B46" s="9"/>
+      <c r="C46" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="D46" s="9"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A47" s="12">
+        <v>43</v>
+      </c>
+      <c r="B47" s="9"/>
+      <c r="D47" s="9"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A48" s="12">
+        <v>44</v>
+      </c>
+      <c r="B48" s="9"/>
+      <c r="C48" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="D48" s="9"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A49" s="12">
+        <v>45</v>
+      </c>
+      <c r="B49" s="9"/>
+      <c r="C49" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="D49" s="9"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A50" s="12">
+        <v>46</v>
+      </c>
+      <c r="B50" s="9"/>
+      <c r="C50" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="D50" s="9"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A51" s="12">
+        <v>47</v>
+      </c>
+      <c r="B51" s="9"/>
+      <c r="C51" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="D51" s="9"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A52" s="12">
+        <v>48</v>
+      </c>
+      <c r="B52" s="9"/>
+      <c r="C52" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="D52" s="9"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A53" s="12">
+        <v>49</v>
+      </c>
+      <c r="B53" s="9"/>
+      <c r="C53" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="D53" s="9"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A54" s="12">
+        <v>50</v>
+      </c>
+      <c r="B54" s="9"/>
+      <c r="C54" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="D54" s="9"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A55" s="12">
+        <v>51</v>
+      </c>
+      <c r="B55" s="9"/>
+      <c r="D55" s="9"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A56" s="12">
+        <v>52</v>
+      </c>
+      <c r="B56" s="9"/>
+      <c r="C56" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="D56" s="9"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A57" s="12">
+        <v>53</v>
+      </c>
+      <c r="B57" s="9"/>
+      <c r="C57" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="D57" s="9"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A58" s="12">
+        <v>54</v>
+      </c>
+      <c r="B58" s="9"/>
+      <c r="C58" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="D58" s="9"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A59" s="12">
+        <v>55</v>
+      </c>
+      <c r="B59" s="9"/>
+      <c r="D59" s="9"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A60" s="12">
+        <v>56</v>
+      </c>
+      <c r="B60" s="9"/>
+      <c r="C60" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="D60" s="9"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A61" s="12">
+        <v>57</v>
+      </c>
+      <c r="B61" s="9"/>
+      <c r="D61" s="9"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A62" s="12">
+        <v>58</v>
+      </c>
+      <c r="B62" s="9"/>
+      <c r="C62" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="D62" s="9"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B63" s="9"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D64" s="13"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
